--- a/data/trans_orig/P59A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D9696E-B5EF-411D-A3D0-5F40B72B8C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DB954C-950B-4DCD-AC29-2F30A7EB9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E831F13-5EA1-4F27-9160-9AAC8AFF373C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0172C5C2-15CE-4618-9D94-E5BB12F4A559}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,49%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,51%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>9,48%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>11,79%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,1084 +254,1114 @@
     <t>14,09%</t>
   </si>
   <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>87,71%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>18,04%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>81,96%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8991D2-AC50-4860-9EBA-5BE8C13BDE1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8375927A-BD09-4B9F-B6B8-744ED38583F7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2484,7 +2514,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>75338</v>
+        <v>75339</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2586,7 +2616,7 @@
         <v>451</v>
       </c>
       <c r="D18" s="7">
-        <v>430464</v>
+        <v>430465</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2806,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEF823-E5D9-4CBD-913F-67B7D5B9B684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E765B9F-4265-464C-9B95-F5E45F0481A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2963,10 +2993,10 @@
         <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3011,13 @@
         <v>44888</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -2996,13 +3026,13 @@
         <v>30977</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -3011,13 +3041,13 @@
         <v>75865</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3115,13 @@
         <v>29749</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3100,13 +3130,13 @@
         <v>24547</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3115,13 +3145,13 @@
         <v>54297</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3166,13 @@
         <v>190300</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>180</v>
@@ -3151,13 +3181,13 @@
         <v>190557</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>364</v>
@@ -3166,13 +3196,13 @@
         <v>380856</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3270,13 @@
         <v>61343</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3255,13 +3285,13 @@
         <v>49921</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -3270,13 +3300,13 @@
         <v>111263</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3321,13 @@
         <v>338655</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -3306,13 +3336,13 @@
         <v>340212</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>630</v>
@@ -3321,13 +3351,13 @@
         <v>678868</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3425,13 @@
         <v>56967</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3410,13 +3440,13 @@
         <v>42840</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3425,13 +3455,13 @@
         <v>99807</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3476,13 @@
         <v>251446</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -3461,13 +3491,13 @@
         <v>258280</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>471</v>
@@ -3476,13 +3506,13 @@
         <v>509727</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3580,13 @@
         <v>55574</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -3565,13 +3595,13 @@
         <v>78672</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -3580,13 +3610,13 @@
         <v>134245</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3631,13 @@
         <v>346469</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>384</v>
@@ -3616,28 +3646,28 @@
         <v>401017</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
       </c>
       <c r="N17" s="7">
-        <v>747486</v>
+        <v>747487</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,7 +3709,7 @@
         <v>852</v>
       </c>
       <c r="N18" s="7">
-        <v>881731</v>
+        <v>881732</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3705,13 +3735,13 @@
         <v>211582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3720,13 +3750,13 @@
         <v>202740</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -3735,10 +3765,10 @@
         <v>414321</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>223</v>
@@ -3774,10 +3804,10 @@
         <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>2261</v>
@@ -3786,13 +3816,13 @@
         <v>2392802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA4DD26-113A-4883-8C57-0AC8C8F4FDF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C6DC06-348D-4301-AC93-1EC484DC5BFB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,13 +4023,13 @@
         <v>18694</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4008,13 +4038,13 @@
         <v>10804</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4023,13 +4053,13 @@
         <v>29498</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4074,13 @@
         <v>39690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -4059,13 +4089,13 @@
         <v>38859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -4074,13 +4104,13 @@
         <v>78549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4178,13 @@
         <v>30686</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4163,13 +4193,13 @@
         <v>25849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4178,13 +4208,13 @@
         <v>56535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4229,13 @@
         <v>197444</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>196</v>
@@ -4214,13 +4244,13 @@
         <v>202302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>389</v>
@@ -4229,13 +4259,13 @@
         <v>399745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4333,13 @@
         <v>74024</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4318,13 +4348,13 @@
         <v>62355</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -4333,13 +4363,13 @@
         <v>136379</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4384,13 @@
         <v>366741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>319</v>
@@ -4369,13 +4399,13 @@
         <v>336328</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>667</v>
@@ -4384,13 +4414,13 @@
         <v>703069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4488,13 @@
         <v>54901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4473,13 +4503,13 @@
         <v>48080</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -4488,13 +4518,13 @@
         <v>102981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4539,13 @@
         <v>266647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -4524,13 +4554,13 @@
         <v>307312</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>530</v>
@@ -4539,13 +4569,13 @@
         <v>573959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4643,13 @@
         <v>76959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -4628,13 +4658,13 @@
         <v>77109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4643,13 +4673,13 @@
         <v>154068</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4694,13 @@
         <v>336158</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>440</v>
@@ -4679,13 +4709,13 @@
         <v>484118</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>772</v>
@@ -4694,13 +4724,13 @@
         <v>820276</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4798,13 @@
         <v>255263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -4783,13 +4813,13 @@
         <v>224197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>454</v>
@@ -4798,13 +4828,13 @@
         <v>479461</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4849,13 @@
         <v>1206679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>1282</v>
@@ -4834,13 +4864,13 @@
         <v>1368918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>2438</v>
@@ -4849,13 +4879,13 @@
         <v>2575597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4675663D-7136-4A61-8992-3A58E21A6B7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30614777-CD74-47A0-B47B-14702BA6ED8C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5086,13 @@
         <v>3773</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5071,13 +5101,13 @@
         <v>8125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5086,13 +5116,13 @@
         <v>11898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5137,13 @@
         <v>56778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>112</v>
@@ -5122,13 +5152,13 @@
         <v>58268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -5137,13 +5167,13 @@
         <v>115045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5241,13 @@
         <v>39756</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5226,13 +5256,13 @@
         <v>31756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -5241,13 +5271,13 @@
         <v>71511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5292,13 @@
         <v>244161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>400</v>
@@ -5277,13 +5307,13 @@
         <v>246373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>645</v>
@@ -5292,13 +5322,13 @@
         <v>490535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5396,13 @@
         <v>78640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5381,13 +5411,13 @@
         <v>73418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -5396,13 +5426,13 @@
         <v>152058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5447,13 @@
         <v>397220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>559</v>
@@ -5432,13 +5462,13 @@
         <v>413086</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -5447,13 +5477,13 @@
         <v>810306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5551,13 @@
         <v>68537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5536,13 +5566,13 @@
         <v>63051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -5551,13 +5581,13 @@
         <v>131588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5602,13 @@
         <v>280819</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>393</v>
@@ -5587,13 +5617,13 @@
         <v>309172</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>612</v>
@@ -5602,13 +5632,13 @@
         <v>589990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5706,13 @@
         <v>72842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -5691,13 +5721,13 @@
         <v>68413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5706,13 +5736,13 @@
         <v>141256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5757,13 @@
         <v>409765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>735</v>
@@ -5742,13 +5772,13 @@
         <v>598360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1098</v>
@@ -5757,13 +5787,13 @@
         <v>1008124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5861,13 @@
         <v>263548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>293</v>
@@ -5846,13 +5876,13 @@
         <v>244763</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>509</v>
@@ -5861,13 +5891,13 @@
         <v>508310</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5912,13 @@
         <v>1388742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>2199</v>
@@ -5897,13 +5927,13 @@
         <v>1625259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>3417</v>
@@ -5912,13 +5942,13 @@
         <v>3014002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P59A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DB954C-950B-4DCD-AC29-2F30A7EB9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6D05E3-D2BB-47EC-92B6-DF75D040F975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0172C5C2-15CE-4618-9D94-E5BB12F4A559}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E45E610E-D336-4556-8213-34C40B776A76}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>10,49%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,649 +107,649 @@
     <t>89,51%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>21,76%</t>
@@ -758,31 +758,31 @@
     <t>12,11%</t>
   </si>
   <si>
-    <t>34,85%</t>
+    <t>35,09%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>65,15%</t>
+    <t>64,91%</t>
   </si>
   <si>
     <t>87,89%</t>
@@ -791,381 +791,357 @@
     <t>72,7%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>7,85%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>88,67%</t>
   </si>
   <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>92,15%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
     <t>83,92%</t>
   </si>
   <si>
@@ -1220,9 +1196,6 @@
     <t>86,84%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
     <t>14,88%</t>
   </si>
   <si>
@@ -1247,9 +1220,6 @@
     <t>21,66%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
     <t>74,82%</t>
   </si>
   <si>
@@ -1319,15 +1289,9 @@
     <t>15,95%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
     <t>14,85%</t>
   </si>
   <si>
@@ -1343,16 +1307,10 @@
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
     <t>86,91%</t>
   </si>
   <si>
     <t>85,15%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
   </si>
   <si>
     <t>85,57%</t>
@@ -1773,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8375927A-BD09-4B9F-B6B8-744ED38583F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F18C8D-A5B3-4C8B-9677-9A0E2841442D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2225,10 +2183,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -2237,13 +2195,13 @@
         <v>73790</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2216,13 @@
         <v>319984</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -2273,13 +2231,13 @@
         <v>321873</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -2288,13 +2246,13 @@
         <v>641857</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,7 +2308,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2362,13 +2320,13 @@
         <v>33110</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2377,13 +2335,13 @@
         <v>29212</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2392,13 +2350,13 @@
         <v>62322</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2371,13 @@
         <v>201934</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -2428,13 +2386,13 @@
         <v>237002</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -2443,13 +2401,13 @@
         <v>438936</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2475,13 @@
         <v>75339</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -2532,13 +2490,13 @@
         <v>65703</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -2547,13 +2505,13 @@
         <v>141041</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2526,13 @@
         <v>355126</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>422</v>
@@ -2583,13 +2541,13 @@
         <v>438031</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>796</v>
@@ -2598,13 +2556,13 @@
         <v>793158</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2630,13 @@
         <v>176279</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -2687,13 +2645,13 @@
         <v>141378</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -2702,13 +2660,13 @@
         <v>317657</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2681,13 @@
         <v>1111973</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1222</v>
@@ -2738,13 +2696,13 @@
         <v>1240885</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2319</v>
@@ -2753,13 +2711,13 @@
         <v>2352859</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E765B9F-4265-464C-9B95-F5E45F0481A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6FD6C-B183-4769-AE13-F4D2AAE7E182}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,13 +2918,13 @@
         <v>7949</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2975,13 +2933,13 @@
         <v>6760</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2990,13 +2948,13 @@
         <v>14709</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2969,13 @@
         <v>44888</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3026,13 +2984,13 @@
         <v>30977</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -3041,13 +2999,13 @@
         <v>75865</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3371,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3568,7 +3526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3658,7 +3616,7 @@
         <v>724</v>
       </c>
       <c r="N17" s="7">
-        <v>747487</v>
+        <v>747486</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>212</v>
@@ -3709,7 +3667,7 @@
         <v>852</v>
       </c>
       <c r="N18" s="7">
-        <v>881732</v>
+        <v>881731</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3878,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C6DC06-348D-4301-AC93-1EC484DC5BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8550D4AF-3AA8-4B78-876F-AE62742C7BAB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4199,7 +4157,7 @@
         <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4208,13 +4166,13 @@
         <v>56535</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4187,13 @@
         <v>197444</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>196</v>
@@ -4244,13 +4202,13 @@
         <v>202302</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>389</v>
@@ -4259,13 +4217,13 @@
         <v>399745</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4291,13 @@
         <v>74024</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4348,13 +4306,13 @@
         <v>62355</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -4363,13 +4321,13 @@
         <v>136379</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4342,13 @@
         <v>366741</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>319</v>
@@ -4399,13 +4357,13 @@
         <v>336328</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>667</v>
@@ -4414,13 +4372,13 @@
         <v>703069</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4434,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4446,13 @@
         <v>54901</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -4503,13 +4461,13 @@
         <v>48080</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -4518,13 +4476,13 @@
         <v>102981</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4497,13 @@
         <v>266647</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -4554,13 +4512,13 @@
         <v>307312</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>530</v>
@@ -4569,13 +4527,13 @@
         <v>573959</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4643,13 +4601,13 @@
         <v>76959</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -4658,13 +4616,13 @@
         <v>77109</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4673,13 +4631,13 @@
         <v>154068</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4652,13 @@
         <v>336158</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>440</v>
@@ -4709,13 +4667,13 @@
         <v>484118</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>772</v>
@@ -4724,13 +4682,13 @@
         <v>820276</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4756,13 @@
         <v>255263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -4813,13 +4771,13 @@
         <v>224197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>454</v>
@@ -4828,13 +4786,13 @@
         <v>479461</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4807,13 @@
         <v>1206679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>1282</v>
@@ -4864,13 +4822,13 @@
         <v>1368918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>2438</v>
@@ -4879,13 +4837,13 @@
         <v>2575597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30614777-CD74-47A0-B47B-14702BA6ED8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8256E2-7B7F-456B-BB20-95035DC22041}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5044,13 @@
         <v>3773</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5101,13 +5059,13 @@
         <v>8125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5116,13 +5074,13 @@
         <v>11898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5095,13 @@
         <v>56778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>112</v>
@@ -5152,13 +5110,13 @@
         <v>58268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -5167,13 +5125,13 @@
         <v>115045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5199,13 @@
         <v>39756</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5256,13 +5214,13 @@
         <v>31756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -5271,13 +5229,13 @@
         <v>71511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5250,13 @@
         <v>244161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>400</v>
@@ -5307,13 +5265,13 @@
         <v>246373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>645</v>
@@ -5322,13 +5280,13 @@
         <v>490535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5354,13 @@
         <v>78640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5411,13 +5369,13 @@
         <v>73418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -5426,13 +5384,13 @@
         <v>152058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5405,13 @@
         <v>397220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>559</v>
@@ -5462,13 +5420,13 @@
         <v>413086</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -5477,13 +5435,13 @@
         <v>810306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5497,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5551,13 +5509,13 @@
         <v>68537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5566,13 +5524,13 @@
         <v>63051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -5581,13 +5539,13 @@
         <v>131588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5560,13 @@
         <v>280819</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>393</v>
@@ -5617,13 +5575,13 @@
         <v>309172</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>612</v>
@@ -5632,13 +5590,13 @@
         <v>589990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5706,13 +5664,13 @@
         <v>72842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -5721,13 +5679,13 @@
         <v>68413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5736,13 +5694,13 @@
         <v>141256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5715,13 @@
         <v>409765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>735</v>
@@ -5772,13 +5730,13 @@
         <v>598360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>1098</v>
@@ -5787,13 +5745,13 @@
         <v>1008124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5819,13 @@
         <v>263548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>293</v>
@@ -5876,13 +5834,13 @@
         <v>244763</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>509</v>
@@ -5891,13 +5849,13 @@
         <v>508310</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5870,13 @@
         <v>1388742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>2199</v>
@@ -5927,13 +5885,13 @@
         <v>1625259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>3417</v>
@@ -5942,13 +5900,13 @@
         <v>3014002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6D05E3-D2BB-47EC-92B6-DF75D040F975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B158ABFE-0C7B-40DA-9C96-988854A84443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E45E610E-D336-4556-8213-34C40B776A76}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0EC22FD-F379-4C0F-AA7F-3DF2F4346A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,51%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1186 +140,1198 @@
     <t>9,48%</t>
   </si>
   <si>
-    <t>6,02%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>86,12%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F18C8D-A5B3-4C8B-9677-9A0E2841442D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C8B60-D09D-48B2-801A-9B9CD799D2B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2183,10 +2195,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -2195,13 +2207,13 @@
         <v>73790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2228,13 @@
         <v>319984</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -2231,13 +2243,13 @@
         <v>321873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -2246,13 +2258,13 @@
         <v>641857</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2320,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2320,13 +2332,13 @@
         <v>33110</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2335,13 +2347,13 @@
         <v>29212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -2350,13 +2362,13 @@
         <v>62322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2383,13 @@
         <v>201934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -2386,13 +2398,13 @@
         <v>237002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -2401,13 +2413,13 @@
         <v>438936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2472,16 +2484,16 @@
         <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>75339</v>
+        <v>75338</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -2490,13 +2502,13 @@
         <v>65703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -2505,13 +2517,13 @@
         <v>141041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2538,13 @@
         <v>355126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>422</v>
@@ -2541,13 +2553,13 @@
         <v>438031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>796</v>
@@ -2556,13 +2568,13 @@
         <v>793158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2586,7 @@
         <v>451</v>
       </c>
       <c r="D18" s="7">
-        <v>430465</v>
+        <v>430464</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2630,13 +2642,13 @@
         <v>176279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -2645,13 +2657,13 @@
         <v>141378</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -2660,13 +2672,13 @@
         <v>317657</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2693,13 @@
         <v>1111973</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1222</v>
@@ -2696,13 +2708,13 @@
         <v>1240885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2319</v>
@@ -2711,13 +2723,13 @@
         <v>2352859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6FD6C-B183-4769-AE13-F4D2AAE7E182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67254B4C-3552-43D3-AB08-F47C2FE6C8F3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2930,13 @@
         <v>7949</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2933,13 +2945,13 @@
         <v>6760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2948,13 +2960,13 @@
         <v>14709</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2981,13 @@
         <v>44888</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -2984,13 +2996,13 @@
         <v>30977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -2999,13 +3011,13 @@
         <v>75865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3085,13 @@
         <v>29749</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3088,13 +3100,13 @@
         <v>24547</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3103,13 +3115,13 @@
         <v>54297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3136,13 @@
         <v>190300</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>180</v>
@@ -3139,13 +3151,13 @@
         <v>190557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>364</v>
@@ -3154,13 +3166,13 @@
         <v>380856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3240,13 @@
         <v>61343</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3243,13 +3255,13 @@
         <v>49921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -3258,13 +3270,13 @@
         <v>111263</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3291,13 @@
         <v>338655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -3294,13 +3306,13 @@
         <v>340212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>630</v>
@@ -3309,13 +3321,13 @@
         <v>678868</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,7 +3383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3383,13 +3395,13 @@
         <v>56967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -3398,13 +3410,13 @@
         <v>42840</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -3413,13 +3425,13 @@
         <v>99807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3446,13 @@
         <v>251446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -3449,13 +3461,13 @@
         <v>258280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>471</v>
@@ -3464,13 +3476,13 @@
         <v>509727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3550,13 @@
         <v>55574</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -3553,13 +3565,13 @@
         <v>78672</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -3568,13 +3580,13 @@
         <v>134245</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3601,13 @@
         <v>346469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>384</v>
@@ -3604,13 +3616,13 @@
         <v>401017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
@@ -3619,13 +3631,13 @@
         <v>747486</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3705,13 @@
         <v>211582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3708,13 +3720,13 @@
         <v>202740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>375</v>
@@ -3723,10 +3735,10 @@
         <v>414321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>223</v>
@@ -3762,10 +3774,10 @@
         <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>2261</v>
@@ -3774,13 +3786,13 @@
         <v>2392802</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8550D4AF-3AA8-4B78-876F-AE62742C7BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE389C-51E9-43B2-B7B5-AE68D4902D2E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3993,13 @@
         <v>18694</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3996,13 +4008,13 @@
         <v>10804</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -4011,13 +4023,13 @@
         <v>29498</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4044,13 @@
         <v>39690</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>41</v>
@@ -4047,13 +4059,13 @@
         <v>38859</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>80</v>
@@ -4062,13 +4074,13 @@
         <v>78549</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4148,13 @@
         <v>30686</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4151,13 +4163,13 @@
         <v>25849</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4166,13 +4178,13 @@
         <v>56535</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4199,13 @@
         <v>197444</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>196</v>
@@ -4202,10 +4214,10 @@
         <v>202302</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>264</v>
@@ -4434,7 +4446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4464,10 +4476,10 @@
         <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -4476,13 +4488,13 @@
         <v>102981</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4509,13 @@
         <v>266647</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -4512,13 +4524,13 @@
         <v>307312</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>530</v>
@@ -4527,13 +4539,13 @@
         <v>573959</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4601,13 +4613,13 @@
         <v>76959</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -4616,13 +4628,13 @@
         <v>77109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4631,13 +4643,13 @@
         <v>154068</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4664,13 @@
         <v>336158</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>440</v>
@@ -4667,13 +4679,13 @@
         <v>484118</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>772</v>
@@ -4682,13 +4694,13 @@
         <v>820276</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4768,13 @@
         <v>255263</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -4771,13 +4783,13 @@
         <v>224197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>454</v>
@@ -4786,13 +4798,13 @@
         <v>479461</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4834,13 @@
         <v>1368918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>2438</v>
@@ -4837,13 +4849,13 @@
         <v>2575597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8256E2-7B7F-456B-BB20-95035DC22041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4387405B-BB66-4DAB-ABA7-F69C4921AFE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5056,13 @@
         <v>3773</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5059,13 +5071,13 @@
         <v>8125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5074,13 +5086,13 @@
         <v>11898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5107,13 @@
         <v>56778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>112</v>
@@ -5110,7 +5122,7 @@
         <v>58268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>346</v>
@@ -5202,10 +5214,10 @@
         <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -5214,13 +5226,13 @@
         <v>31756</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -5229,13 +5241,13 @@
         <v>71511</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5262,13 @@
         <v>244161</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>400</v>
@@ -5265,13 +5277,13 @@
         <v>246373</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>645</v>
@@ -5280,13 +5292,13 @@
         <v>490535</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5366,13 @@
         <v>78640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5369,13 +5381,13 @@
         <v>73418</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -5384,13 +5396,13 @@
         <v>152058</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5417,13 @@
         <v>397220</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>559</v>
@@ -5420,13 +5432,13 @@
         <v>413086</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -5435,13 +5447,13 @@
         <v>810306</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5509,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5509,13 +5521,13 @@
         <v>68537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5524,13 +5536,13 @@
         <v>63051</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -5539,13 +5551,13 @@
         <v>131588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5572,13 @@
         <v>280819</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>393</v>
@@ -5575,13 +5587,13 @@
         <v>309172</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>612</v>
@@ -5590,13 +5602,13 @@
         <v>589990</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5664,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5676,13 @@
         <v>72842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -5679,13 +5691,13 @@
         <v>68413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5694,13 +5706,13 @@
         <v>141256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5727,13 @@
         <v>409765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>735</v>
@@ -5730,13 +5742,13 @@
         <v>598360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>1098</v>
@@ -5745,13 +5757,13 @@
         <v>1008124</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5831,13 @@
         <v>263548</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>293</v>
@@ -5837,10 +5849,10 @@
         <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>509</v>
@@ -5849,13 +5861,13 @@
         <v>508310</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5882,13 @@
         <v>1388742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>2199</v>
@@ -5885,13 +5897,13 @@
         <v>1625259</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>3417</v>
@@ -5900,13 +5912,13 @@
         <v>3014002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B158ABFE-0C7B-40DA-9C96-988854A84443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8560382-1317-4DD7-9929-545AEF8FC109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0EC22FD-F379-4C0F-AA7F-3DF2F4346A5D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05E6A240-45D3-4E37-B68E-BF47A550CC25}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="356">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -68,1270 +68,1045 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>88,04%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C8B60-D09D-48B2-801A-9B9CD799D2B1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B7539E-5FCB-47A0-9053-92DFBFCF5B84}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1861,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>4194</v>
+        <v>25061</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1876,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>4850</v>
+        <v>15443</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1891,10 +1666,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>9045</v>
+        <v>40504</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1912,10 +1687,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D5" s="7">
-        <v>35800</v>
+        <v>234928</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1927,10 +1702,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="I5" s="7">
-        <v>34040</v>
+        <v>243979</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1942,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>71</v>
+        <v>480</v>
       </c>
       <c r="N5" s="7">
-        <v>69840</v>
+        <v>478908</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1963,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="D6" s="7">
-        <v>39994</v>
+        <v>259989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1753,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="I6" s="7">
-        <v>38890</v>
+        <v>259422</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="N6" s="7">
-        <v>78885</v>
+        <v>519412</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>20866</v>
+        <v>42770</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2031,10 +1806,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>10593</v>
+        <v>31020</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2046,10 +1821,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>31459</v>
+        <v>73790</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2067,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>199129</v>
+        <v>319984</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2082,10 +1857,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="I8" s="7">
-        <v>209939</v>
+        <v>321873</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2097,10 +1872,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>409</v>
+        <v>606</v>
       </c>
       <c r="N8" s="7">
-        <v>409068</v>
+        <v>641857</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2118,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>219995</v>
+        <v>362754</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1908,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="I9" s="7">
-        <v>220532</v>
+        <v>352893</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>438</v>
+        <v>672</v>
       </c>
       <c r="N9" s="7">
-        <v>440527</v>
+        <v>715647</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>42770</v>
+        <v>33110</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2186,10 +1961,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>31020</v>
+        <v>29212</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2201,10 +1976,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>73790</v>
+        <v>62322</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2222,10 +1997,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>319984</v>
+        <v>201934</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2237,10 +2012,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="I11" s="7">
-        <v>321873</v>
+        <v>237002</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2252,10 +2027,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>606</v>
+        <v>437</v>
       </c>
       <c r="N11" s="7">
-        <v>641857</v>
+        <v>438936</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2273,10 +2048,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>362754</v>
+        <v>235044</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2063,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>352893</v>
+        <v>266214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>672</v>
+        <v>495</v>
       </c>
       <c r="N12" s="7">
-        <v>715647</v>
+        <v>501258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>33110</v>
+        <v>75339</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2341,10 +2116,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>29212</v>
+        <v>65703</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2356,10 +2131,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="N13" s="7">
-        <v>62322</v>
+        <v>141041</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2377,10 +2152,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="D14" s="7">
-        <v>201934</v>
+        <v>355126</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2392,10 +2167,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="I14" s="7">
-        <v>237002</v>
+        <v>438031</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2407,10 +2182,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>437</v>
+        <v>796</v>
       </c>
       <c r="N14" s="7">
-        <v>438936</v>
+        <v>793158</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2428,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="D15" s="7">
-        <v>235044</v>
+        <v>430465</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2218,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="I15" s="7">
-        <v>266214</v>
+        <v>503734</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>495</v>
+        <v>934</v>
       </c>
       <c r="N15" s="7">
-        <v>501258</v>
+        <v>934199</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2475,55 +2250,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="D16" s="7">
-        <v>75338</v>
+        <v>176279</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>133</v>
+      </c>
+      <c r="I16" s="7">
+        <v>141378</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>61</v>
-      </c>
-      <c r="I16" s="7">
-        <v>65703</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>300</v>
+      </c>
+      <c r="N16" s="7">
+        <v>317657</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>138</v>
-      </c>
-      <c r="N16" s="7">
-        <v>141041</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2307,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>374</v>
+        <v>1097</v>
       </c>
       <c r="D17" s="7">
-        <v>355126</v>
+        <v>1111973</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1222</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1240885</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>422</v>
-      </c>
-      <c r="I17" s="7">
-        <v>438031</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2319</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2352858</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>796</v>
-      </c>
-      <c r="N17" s="7">
-        <v>793158</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>451</v>
+        <v>1264</v>
       </c>
       <c r="D18" s="7">
-        <v>430464</v>
+        <v>1288252</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2373,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>483</v>
+        <v>1355</v>
       </c>
       <c r="I18" s="7">
-        <v>503734</v>
+        <v>1382263</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>934</v>
+        <v>2619</v>
       </c>
       <c r="N18" s="7">
-        <v>934199</v>
+        <v>2670515</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2629,171 +2404,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>167</v>
-      </c>
-      <c r="D19" s="7">
-        <v>176279</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>133</v>
-      </c>
-      <c r="I19" s="7">
-        <v>141378</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>300</v>
-      </c>
-      <c r="N19" s="7">
-        <v>317657</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1097</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1111973</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1222</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1240885</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2319</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2352859</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1264</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1288252</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1355</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1382263</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2619</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2670516</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67254B4C-3552-43D3-AB08-F47C2FE6C8F3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0694E7C-506E-48E2-945E-78979F017398}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,49 +2543,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>7949</v>
+        <v>37699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>6760</v>
+        <v>31308</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>14709</v>
+        <v>69006</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2594,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="D5" s="7">
-        <v>44888</v>
+        <v>235187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>30977</v>
+        <v>221533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
-        <v>72</v>
+        <v>436</v>
       </c>
       <c r="N5" s="7">
-        <v>75865</v>
+        <v>456721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="D6" s="7">
-        <v>52837</v>
+        <v>272886</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2660,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="I6" s="7">
-        <v>37737</v>
+        <v>252841</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2675,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="N6" s="7">
-        <v>90574</v>
+        <v>525727</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2698,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>29749</v>
+        <v>61343</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>24547</v>
+        <v>49921</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="N7" s="7">
-        <v>54297</v>
+        <v>111263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2749,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>184</v>
+        <v>313</v>
       </c>
       <c r="D8" s="7">
-        <v>190300</v>
+        <v>338655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="I8" s="7">
-        <v>190557</v>
+        <v>340212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>364</v>
+        <v>630</v>
       </c>
       <c r="N8" s="7">
-        <v>380856</v>
+        <v>678868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>209</v>
+        <v>368</v>
       </c>
       <c r="D9" s="7">
-        <v>220049</v>
+        <v>399998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="I9" s="7">
-        <v>215104</v>
+        <v>390133</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>412</v>
+        <v>729</v>
       </c>
       <c r="N9" s="7">
-        <v>435153</v>
+        <v>790131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,49 +2853,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>61343</v>
+        <v>56967</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>49921</v>
+        <v>42840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>111263</v>
+        <v>99807</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2904,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>338655</v>
+        <v>251446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="I11" s="7">
-        <v>340212</v>
+        <v>258280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>630</v>
+        <v>471</v>
       </c>
       <c r="N11" s="7">
-        <v>678868</v>
+        <v>509727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +2955,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="D12" s="7">
-        <v>399998</v>
+        <v>308413</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="I12" s="7">
-        <v>390133</v>
+        <v>301120</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>729</v>
+        <v>559</v>
       </c>
       <c r="N12" s="7">
-        <v>790131</v>
+        <v>609534</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,49 +3008,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>56967</v>
+        <v>55574</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>42840</v>
+        <v>78672</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7">
-        <v>99807</v>
+        <v>134245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3059,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7">
-        <v>251446</v>
+        <v>346469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="I14" s="7">
-        <v>258280</v>
+        <v>401017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>471</v>
+        <v>724</v>
       </c>
       <c r="N14" s="7">
-        <v>509727</v>
+        <v>747486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="D15" s="7">
-        <v>308413</v>
+        <v>402043</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>457</v>
       </c>
       <c r="I15" s="7">
-        <v>301120</v>
+        <v>479689</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>559</v>
+        <v>852</v>
       </c>
       <c r="N15" s="7">
-        <v>609534</v>
+        <v>881731</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3538,55 +3157,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7">
-        <v>55574</v>
+        <v>211582</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="I16" s="7">
-        <v>78672</v>
+        <v>202740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="N16" s="7">
-        <v>134245</v>
+        <v>414321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>340</v>
+        <v>1116</v>
       </c>
       <c r="D17" s="7">
-        <v>346469</v>
+        <v>1171758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>384</v>
+        <v>1145</v>
       </c>
       <c r="I17" s="7">
-        <v>401017</v>
+        <v>1221043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>724</v>
+        <v>2261</v>
       </c>
       <c r="N17" s="7">
-        <v>747486</v>
+        <v>2392802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>395</v>
+        <v>1308</v>
       </c>
       <c r="D18" s="7">
-        <v>402043</v>
+        <v>1383340</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3280,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>457</v>
+        <v>1328</v>
       </c>
       <c r="I18" s="7">
-        <v>479689</v>
+        <v>1423783</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>852</v>
+        <v>2636</v>
       </c>
       <c r="N18" s="7">
-        <v>881731</v>
+        <v>2807123</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3692,171 +3311,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>192</v>
-      </c>
-      <c r="D19" s="7">
-        <v>211582</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>183</v>
-      </c>
-      <c r="I19" s="7">
-        <v>202740</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M19" s="7">
-        <v>375</v>
-      </c>
-      <c r="N19" s="7">
-        <v>414321</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1116</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1171758</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1145</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1221043</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2261</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2392802</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1308</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1383340</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1328</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1423783</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2636</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2807123</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3869,8 +3332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE389C-51E9-43B2-B7B5-AE68D4902D2E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A0CE3B-373B-443D-AF52-8138EE400FB1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3886,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,49 +3450,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>18694</v>
+        <v>49379</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>10804</v>
+        <v>36654</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>29498</v>
+        <v>86033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3501,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="D5" s="7">
-        <v>39690</v>
+        <v>237134</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="I5" s="7">
-        <v>38859</v>
+        <v>241160</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="N5" s="7">
-        <v>78549</v>
+        <v>478294</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="D6" s="7">
-        <v>58384</v>
+        <v>286513</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3567,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="I6" s="7">
-        <v>49663</v>
+        <v>277814</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3582,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>107</v>
+        <v>552</v>
       </c>
       <c r="N6" s="7">
-        <v>108047</v>
+        <v>564327</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3605,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>30686</v>
+        <v>74024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>25849</v>
+        <v>62355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
-        <v>56535</v>
+        <v>136379</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3656,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>193</v>
+        <v>348</v>
       </c>
       <c r="D8" s="7">
-        <v>197444</v>
+        <v>366741</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>202302</v>
+        <v>336328</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="N8" s="7">
-        <v>399745</v>
+        <v>703069</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="D9" s="7">
-        <v>228130</v>
+        <v>440765</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>223</v>
+        <v>380</v>
       </c>
       <c r="I9" s="7">
-        <v>228151</v>
+        <v>398683</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3737,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>445</v>
+        <v>793</v>
       </c>
       <c r="N9" s="7">
-        <v>456280</v>
+        <v>839448</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,49 +3760,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>74024</v>
+        <v>54901</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>62355</v>
+        <v>48080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>136379</v>
+        <v>102981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3811,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="D11" s="7">
-        <v>366741</v>
+        <v>266647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="I11" s="7">
-        <v>336328</v>
+        <v>307312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>667</v>
+        <v>530</v>
       </c>
       <c r="N11" s="7">
-        <v>703069</v>
+        <v>573959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="D12" s="7">
-        <v>440765</v>
+        <v>321548</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>398683</v>
+        <v>355392</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3892,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>793</v>
+        <v>628</v>
       </c>
       <c r="N12" s="7">
-        <v>839448</v>
+        <v>676940</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,49 +3915,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>54901</v>
+        <v>76959</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>48080</v>
+        <v>77109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="N13" s="7">
-        <v>102981</v>
+        <v>154068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +3966,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7">
-        <v>266647</v>
+        <v>336158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
-        <v>286</v>
+        <v>440</v>
       </c>
       <c r="I14" s="7">
-        <v>307312</v>
+        <v>484118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
-        <v>530</v>
+        <v>772</v>
       </c>
       <c r="N14" s="7">
-        <v>573959</v>
+        <v>820276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>293</v>
+        <v>407</v>
       </c>
       <c r="D15" s="7">
-        <v>321548</v>
+        <v>413117</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>335</v>
+        <v>512</v>
       </c>
       <c r="I15" s="7">
-        <v>355392</v>
+        <v>561227</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>628</v>
+        <v>919</v>
       </c>
       <c r="N15" s="7">
-        <v>676940</v>
+        <v>974344</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4601,55 +4064,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="D16" s="7">
-        <v>76959</v>
+        <v>255263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="I16" s="7">
-        <v>77109</v>
+        <v>224197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>147</v>
+        <v>454</v>
       </c>
       <c r="N16" s="7">
-        <v>154068</v>
+        <v>479461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +4121,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>332</v>
+        <v>1156</v>
       </c>
       <c r="D17" s="7">
-        <v>336158</v>
+        <v>1206679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>440</v>
+        <v>1282</v>
       </c>
       <c r="I17" s="7">
-        <v>484118</v>
+        <v>1368918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>772</v>
+        <v>2438</v>
       </c>
       <c r="N17" s="7">
-        <v>820276</v>
+        <v>2575597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>407</v>
+        <v>1390</v>
       </c>
       <c r="D18" s="7">
-        <v>413117</v>
+        <v>1461942</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4187,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>512</v>
+        <v>1502</v>
       </c>
       <c r="I18" s="7">
-        <v>561227</v>
+        <v>1593115</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4202,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>919</v>
+        <v>2892</v>
       </c>
       <c r="N18" s="7">
-        <v>974344</v>
+        <v>3055058</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4755,171 +4218,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>234</v>
-      </c>
-      <c r="D19" s="7">
-        <v>255263</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="7">
-        <v>220</v>
-      </c>
-      <c r="I19" s="7">
-        <v>224197</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M19" s="7">
-        <v>454</v>
-      </c>
-      <c r="N19" s="7">
-        <v>479461</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1156</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1206679</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1282</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1368918</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2438</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2575597</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1390</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1461942</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1502</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1593115</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2892</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3055058</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4932,8 +4239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4387405B-BB66-4DAB-ABA7-F69C4921AFE0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E54E50-0DA4-4DD8-AFBB-FCED4ACCD7F7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4949,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,49 +4357,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>3773</v>
+        <v>43239</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>8125</v>
+        <v>37779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="N4" s="7">
-        <v>11898</v>
+        <v>81018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +4408,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>302</v>
       </c>
       <c r="D5" s="7">
-        <v>56778</v>
+        <v>299942</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>512</v>
       </c>
       <c r="I5" s="7">
-        <v>58268</v>
+        <v>281763</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
-        <v>169</v>
+        <v>814</v>
       </c>
       <c r="N5" s="7">
-        <v>115045</v>
+        <v>581705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +4459,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="D6" s="7">
-        <v>60551</v>
+        <v>343181</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4474,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="I6" s="7">
-        <v>66393</v>
+        <v>319542</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4489,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>181</v>
+        <v>901</v>
       </c>
       <c r="N6" s="7">
-        <v>126943</v>
+        <v>662723</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5205,49 +4512,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
-        <v>39756</v>
+        <v>77364</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>31756</v>
+        <v>68308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="N7" s="7">
-        <v>71511</v>
+        <v>145672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +4563,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>245</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>244161</v>
+        <v>391249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="I8" s="7">
-        <v>246373</v>
+        <v>368506</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
-        <v>645</v>
+        <v>893</v>
       </c>
       <c r="N8" s="7">
-        <v>490535</v>
+        <v>759755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="D9" s="7">
-        <v>283917</v>
+        <v>468613</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4629,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>441</v>
+        <v>644</v>
       </c>
       <c r="I9" s="7">
-        <v>278129</v>
+        <v>436814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +4644,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>720</v>
+        <v>1035</v>
       </c>
       <c r="N9" s="7">
-        <v>562046</v>
+        <v>905427</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,49 +4667,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>78640</v>
+        <v>67031</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>73418</v>
+        <v>59283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>152058</v>
+        <v>126314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +4718,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>397220</v>
+        <v>279799</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
-        <v>559</v>
+        <v>393</v>
       </c>
       <c r="I11" s="7">
-        <v>413086</v>
+        <v>283214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
-        <v>893</v>
+        <v>612</v>
       </c>
       <c r="N11" s="7">
-        <v>810306</v>
+        <v>563013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>391</v>
+        <v>273</v>
       </c>
       <c r="D12" s="7">
-        <v>475860</v>
+        <v>346830</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4784,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>644</v>
+        <v>468</v>
       </c>
       <c r="I12" s="7">
-        <v>486504</v>
+        <v>342497</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +4799,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1035</v>
+        <v>741</v>
       </c>
       <c r="N12" s="7">
-        <v>962364</v>
+        <v>689327</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,49 +4822,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>68537</v>
+        <v>70872</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>63051</v>
+        <v>63629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="N13" s="7">
-        <v>131588</v>
+        <v>134500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +4873,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="D14" s="7">
-        <v>280819</v>
+        <v>400092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
-        <v>393</v>
+        <v>735</v>
       </c>
       <c r="I14" s="7">
-        <v>309172</v>
+        <v>589707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
-        <v>612</v>
+        <v>1098</v>
       </c>
       <c r="N14" s="7">
-        <v>589990</v>
+        <v>989800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>273</v>
+        <v>430</v>
       </c>
       <c r="D15" s="7">
-        <v>349356</v>
+        <v>470964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4939,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>468</v>
+        <v>819</v>
       </c>
       <c r="I15" s="7">
-        <v>372223</v>
+        <v>653336</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +4954,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>741</v>
+        <v>1249</v>
       </c>
       <c r="N15" s="7">
-        <v>721578</v>
+        <v>1124300</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5664,55 +4971,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="D16" s="7">
-        <v>72842</v>
+        <v>258506</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="I16" s="7">
-        <v>68413</v>
+        <v>228998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
-        <v>151</v>
+        <v>509</v>
       </c>
       <c r="N16" s="7">
-        <v>141256</v>
+        <v>487504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5028,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>363</v>
+        <v>1218</v>
       </c>
       <c r="D17" s="7">
-        <v>409765</v>
+        <v>1371082</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
-        <v>735</v>
+        <v>2199</v>
       </c>
       <c r="I17" s="7">
-        <v>598360</v>
+        <v>1523191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>1098</v>
+        <v>3417</v>
       </c>
       <c r="N17" s="7">
-        <v>1008124</v>
+        <v>2894273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>430</v>
+        <v>1434</v>
       </c>
       <c r="D18" s="7">
-        <v>482607</v>
+        <v>1629588</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5094,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>819</v>
+        <v>2492</v>
       </c>
       <c r="I18" s="7">
-        <v>666773</v>
+        <v>1752189</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5109,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1249</v>
+        <v>3926</v>
       </c>
       <c r="N18" s="7">
-        <v>1149380</v>
+        <v>3381777</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5818,171 +5125,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>216</v>
-      </c>
-      <c r="D19" s="7">
-        <v>263548</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H19" s="7">
-        <v>293</v>
-      </c>
-      <c r="I19" s="7">
-        <v>244763</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="M19" s="7">
-        <v>509</v>
-      </c>
-      <c r="N19" s="7">
-        <v>508310</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1218</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1388742</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2199</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1625259</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3417</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3014002</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1434</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1652290</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2492</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1870022</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3926</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3522312</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
